--- a/static/data/historical/source/state_total_tax_values_historical.xlsx
+++ b/static/data/historical/source/state_total_tax_values_historical.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -841,7 +844,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -851,6 +854,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="118">
     <cellStyle name="active" xfId="3"/>
@@ -983,6 +987,163 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TABLE"/>
+      <sheetName val="Calculations"/>
+      <sheetName val="2Q_2017_QTAX-mf"/>
+      <sheetName val="CPI_FRED"/>
+      <sheetName val="KEY"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="71">
+          <cell r="M71">
+            <v>1151.3773253405795</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="M72">
+            <v>1305.1018176577616</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="M73">
+            <v>2545.0212541412843</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="M74">
+            <v>1683.525679878602</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="M75">
+            <v>1524.5217465987221</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="M76">
+            <v>1832.2121221411494</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="M77">
+            <v>2508.5208690255586</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="M78">
+            <v>1154.6979346591775</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="M79">
+            <v>1637.3189277733836</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="M80">
+            <v>1044.8230298021085</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="M81">
+            <v>1572.7445653110833</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="M82">
+            <v>988.14217617379904</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="M83">
+            <v>890.57464761067013</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="M84">
+            <v>332.24081585892617</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="M85">
+            <v>1306.3114576162382</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="M86">
+            <v>265.11000088462396</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="M87">
+            <v>318.07554088896956</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="M88">
+            <v>55.941774538783001</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="M89">
+            <v>287.35691213788385</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="M90">
+            <v>251.40332242404867</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="M91">
+            <v>185.56512839910897</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="M92">
+            <v>89.169178603091638</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="M93">
+            <v>356.66747433899678</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="M94">
+            <v>459.59440754312044</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="M95">
+            <v>230.60047969352456</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="M96">
+            <v>232.81770180483531</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="M97">
+            <v>415</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1309,8 +1470,8 @@
   <dimension ref="A1:BB92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73:E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12766,7 +12927,8 @@
       <c r="D73" s="2">
         <v>2.9507485982366983</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="9">
+        <f>(([1]Calculations!M75+[1]Calculations!M76+[1]Calculations!M77+[1]Calculations!M78)-([1]Calculations!M71+[1]Calculations!M72+[1]Calculations!M73+[1]Calculations!M74))/([1]Calculations!M71+[1]Calculations!M72+[1]Calculations!M73+[1]Calculations!M74)*100</f>
         <v>5.0101015545442742</v>
       </c>
       <c r="F73" s="2">
@@ -12930,7 +13092,8 @@
       <c r="D74" s="2">
         <v>2.6206482180143333</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="9">
+        <f>(([1]Calculations!M76+[1]Calculations!M77+[1]Calculations!M78+[1]Calculations!M79)-([1]Calculations!M72+[1]Calculations!M73+[1]Calculations!M74+[1]Calculations!M75))/([1]Calculations!M72+[1]Calculations!M73+[1]Calculations!M74+[1]Calculations!M75)*100</f>
         <v>1.0566386196127187</v>
       </c>
       <c r="F74" s="2">
@@ -13094,7 +13257,8 @@
       <c r="D75" s="2">
         <v>2.2402679480958243</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="9">
+        <f>(([1]Calculations!M77+[1]Calculations!M78+[1]Calculations!M79+[1]Calculations!M80)-([1]Calculations!M73+[1]Calculations!M74+[1]Calculations!M75+[1]Calculations!M76))/([1]Calculations!M73+[1]Calculations!M74+[1]Calculations!M75+[1]Calculations!M76)*100</f>
         <v>-16.346396049680951</v>
       </c>
       <c r="F75" s="2">
@@ -13258,7 +13422,8 @@
       <c r="D76" s="2">
         <v>1.3238538487117419</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="9">
+        <f>(([1]Calculations!M78+[1]Calculations!M79+[1]Calculations!M80+[1]Calculations!M81)-([1]Calculations!M74+[1]Calculations!M75+[1]Calculations!M76+[1]Calculations!M77))/([1]Calculations!M74+[1]Calculations!M75+[1]Calculations!M76+[1]Calculations!M77)*100</f>
         <v>-28.338298927046011</v>
       </c>
       <c r="F76" s="2">
@@ -13422,7 +13587,8 @@
       <c r="D77" s="2">
         <v>0.65366527131652419</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="9">
+        <f>(([1]Calculations!M79+[1]Calculations!M80+[1]Calculations!M81+[1]Calculations!M82)-([1]Calculations!M75+[1]Calculations!M76+[1]Calculations!M77+[1]Calculations!M78))/([1]Calculations!M75+[1]Calculations!M76+[1]Calculations!M77+[1]Calculations!M78)*100</f>
         <v>-25.312477965047382</v>
       </c>
       <c r="F77" s="2">
@@ -13586,7 +13752,8 @@
       <c r="D78" s="2">
         <v>1.5298670707513027</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="9">
+        <f>(([1]Calculations!M80+[1]Calculations!M81+[1]Calculations!M82+[1]Calculations!M83)-([1]Calculations!M76+[1]Calculations!M77+[1]Calculations!M78+[1]Calculations!M79))/([1]Calculations!M76+[1]Calculations!M77+[1]Calculations!M78+[1]Calculations!M79)*100</f>
         <v>-36.962819232630409</v>
       </c>
       <c r="F78" s="2">
@@ -13750,7 +13917,8 @@
       <c r="D79" s="2">
         <v>-0.20575303790293029</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="9">
+        <f>(([1]Calculations!M81+[1]Calculations!M82+[1]Calculations!M83+[1]Calculations!M84)-([1]Calculations!M77+[1]Calculations!M78+[1]Calculations!M79+[1]Calculations!M80))/([1]Calculations!M77+[1]Calculations!M78+[1]Calculations!M79+[1]Calculations!M80)*100</f>
         <v>-40.370573915122648</v>
       </c>
       <c r="F79" s="2">
@@ -13914,7 +14082,8 @@
       <c r="D80" s="2">
         <v>-2.2943468078355096</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="9">
+        <f>(([1]Calculations!M82+[1]Calculations!M83+[1]Calculations!M84+[1]Calculations!M85)-([1]Calculations!M78+[1]Calculations!M79+[1]Calculations!M80+[1]Calculations!M81))/([1]Calculations!M78+[1]Calculations!M79+[1]Calculations!M80+[1]Calculations!M81)*100</f>
         <v>-34.980789654675888</v>
       </c>
       <c r="F80" s="2">
@@ -14078,7 +14247,8 @@
       <c r="D81" s="2">
         <v>-1.5465752241252793</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="9">
+        <f>(([1]Calculations!M83+[1]Calculations!M84+[1]Calculations!M85+[1]Calculations!M86)-([1]Calculations!M79+[1]Calculations!M80+[1]Calculations!M81+[1]Calculations!M82))/([1]Calculations!M79+[1]Calculations!M80+[1]Calculations!M81+[1]Calculations!M82)*100</f>
         <v>-46.705671810050831</v>
       </c>
       <c r="F81" s="2">
@@ -14242,7 +14412,8 @@
       <c r="D82" s="2">
         <v>-0.81059843140220356</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="9">
+        <f>(([1]Calculations!M84+[1]Calculations!M85+[1]Calculations!M86+[1]Calculations!M87)-([1]Calculations!M80+[1]Calculations!M81+[1]Calculations!M82+[1]Calculations!M83))/([1]Calculations!M80+[1]Calculations!M81+[1]Calculations!M82+[1]Calculations!M83)*100</f>
         <v>-50.58724919822901</v>
       </c>
       <c r="F82" s="2">
@@ -14406,7 +14577,8 @@
       <c r="D83" s="2">
         <v>2.5779406101709008</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="9">
+        <f>(([1]Calculations!M85+[1]Calculations!M86+[1]Calculations!M87+[1]Calculations!M88)-([1]Calculations!M81+[1]Calculations!M82+[1]Calculations!M83+[1]Calculations!M84))/([1]Calculations!M81+[1]Calculations!M82+[1]Calculations!M83+[1]Calculations!M84)*100</f>
         <v>-48.583723862274198</v>
       </c>
       <c r="F83" s="2">
@@ -14570,7 +14742,8 @@
       <c r="D84" s="2">
         <v>4.2691497795526434</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="9">
+        <f>(([1]Calculations!M86+[1]Calculations!M87+[1]Calculations!M88+[1]Calculations!M89)-([1]Calculations!M82+[1]Calculations!M83+[1]Calculations!M84+[1]Calculations!M85))/([1]Calculations!M82+[1]Calculations!M83+[1]Calculations!M84+[1]Calculations!M85)*100</f>
         <v>-73.658989322935213</v>
       </c>
       <c r="F84" s="2">
@@ -14734,7 +14907,8 @@
       <c r="D85" s="2">
         <v>4.8569897471576047</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="9">
+        <f>(([1]Calculations!M87+[1]Calculations!M88+[1]Calculations!M89+[1]Calculations!M90)-([1]Calculations!M83+[1]Calculations!M84+[1]Calculations!M85+[1]Calculations!M86))/([1]Calculations!M83+[1]Calculations!M84+[1]Calculations!M85+[1]Calculations!M86)*100</f>
         <v>-67.333566355353767</v>
       </c>
       <c r="F85" s="2">
@@ -14898,7 +15072,8 @@
       <c r="D86" s="2">
         <v>4.1807499119290172</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="9">
+        <f>(([1]Calculations!M88+[1]Calculations!M89+[1]Calculations!M90+[1]Calculations!M91)-([1]Calculations!M84+[1]Calculations!M85+[1]Calculations!M86+[1]Calculations!M87))/([1]Calculations!M84+[1]Calculations!M85+[1]Calculations!M86+[1]Calculations!M87)*100</f>
         <v>-64.880323315176526</v>
       </c>
       <c r="F86" s="2">
@@ -15062,7 +15237,8 @@
       <c r="D87" s="2">
         <v>2.1098573591631453</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="9">
+        <f>(([1]Calculations!M89+[1]Calculations!M90+[1]Calculations!M91+[1]Calculations!M92)-([1]Calculations!M85+[1]Calculations!M86+[1]Calculations!M87+[1]Calculations!M88))/([1]Calculations!M85+[1]Calculations!M86+[1]Calculations!M87+[1]Calculations!M88)*100</f>
         <v>-58.184521020861325</v>
       </c>
       <c r="F87" s="2">
@@ -15226,7 +15402,8 @@
       <c r="D88" s="2">
         <v>2.9247675568458784</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="9">
+        <f>(([1]Calculations!M90+[1]Calculations!M91+[1]Calculations!M92+[1]Calculations!M93)-([1]Calculations!M86+[1]Calculations!M87+[1]Calculations!M88+[1]Calculations!M89))/([1]Calculations!M86+[1]Calculations!M87+[1]Calculations!M88+[1]Calculations!M89)*100</f>
         <v>-4.7145027776756523</v>
       </c>
       <c r="F88" s="2">
@@ -15390,7 +15567,8 @@
       <c r="D89" s="2">
         <v>0.72819734190300323</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="9">
+        <f>(([1]Calculations!M91+[1]Calculations!M92+[1]Calculations!M93+[1]Calculations!M94)-([1]Calculations!M87+[1]Calculations!M88+[1]Calculations!M89+[1]Calculations!M90))/([1]Calculations!M87+[1]Calculations!M88+[1]Calculations!M89+[1]Calculations!M90)*100</f>
         <v>19.52487097175505</v>
       </c>
       <c r="F89" s="2">
@@ -15554,7 +15732,8 @@
       <c r="D90" s="2">
         <v>0.9707854637315293</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="9">
+        <f>(([1]Calculations!M92+[1]Calculations!M93+[1]Calculations!M94+[1]Calculations!M95)-([1]Calculations!M88+[1]Calculations!M89+[1]Calculations!M90+[1]Calculations!M91))/([1]Calculations!M88+[1]Calculations!M89+[1]Calculations!M90+[1]Calculations!M91)*100</f>
         <v>45.595205229182035</v>
       </c>
       <c r="F90" s="2">
@@ -15718,8 +15897,9 @@
       <c r="D91" s="2">
         <v>1.7660244537633505</v>
       </c>
-      <c r="E91" s="2">
-        <v>85.925988178996576</v>
+      <c r="E91" s="9">
+        <f>(([1]Calculations!M93+[1]Calculations!M94+[1]Calculations!M95+[1]Calculations!M96)-([1]Calculations!M89+[1]Calculations!M90+[1]Calculations!M91+[1]Calculations!M92))/([1]Calculations!M89+[1]Calculations!M90+[1]Calculations!M91+[1]Calculations!M92)*100</f>
+        <v>57.306533479621578</v>
       </c>
       <c r="F91" s="2">
         <v>2.1805333741143027</v>
@@ -15882,8 +16062,9 @@
       <c r="D92" s="8">
         <v>-1.3497848674856225</v>
       </c>
-      <c r="E92" s="8">
-        <v>77.936249365412365</v>
+      <c r="E92" s="9">
+        <f>(([1]Calculations!M94+[1]Calculations!M95+[1]Calculations!M96+[1]Calculations!M97)-([1]Calculations!M90+[1]Calculations!M91+[1]Calculations!M92+[1]Calculations!M93))/([1]Calculations!M90+[1]Calculations!M91+[1]Calculations!M92+[1]Calculations!M93)*100</f>
+        <v>51.563757768813502</v>
       </c>
       <c r="F92" s="8">
         <v>0.9329401887203943</v>
